--- a/hw/ESP32 Pins.xlsx
+++ b/hw/ESP32 Pins.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="336">
   <si>
     <t>No.</t>
   </si>
@@ -185,9 +185,6 @@
   </si>
   <si>
     <t>EMAC_TX_ER</t>
-  </si>
-  <si>
-    <t>U2RXD</t>
   </si>
   <si>
     <t>IO05</t>
@@ -439,6 +436,9 @@
     <t xml:space="preserve">Not available on WROVER</t>
   </si>
   <si>
+    <t>U2RXD</t>
+  </si>
+  <si>
     <t>EMAC_CLK_OUT</t>
   </si>
   <si>
@@ -461,6 +461,9 @@
   </si>
   <si>
     <t>HS1_DATA5</t>
+  </si>
+  <si>
+    <t>LED_STRIP</t>
   </si>
   <si>
     <t>IO18</t>
@@ -565,7 +568,7 @@
     <t>EMAC_RXD0</t>
   </si>
   <si>
-    <t>LED_STRIP</t>
+    <t>CAN_STBY</t>
   </si>
   <si>
     <t>IO26</t>
@@ -586,7 +589,7 @@
     <t>EMAC_RXD1</t>
   </si>
   <si>
-    <t>U1RX</t>
+    <t>CAN_RX</t>
   </si>
   <si>
     <t>IO27</t>
@@ -607,7 +610,7 @@
     <t>EMAC_RX_DV</t>
   </si>
   <si>
-    <t>U1TX</t>
+    <t>CAN_TX</t>
   </si>
   <si>
     <t>IO32</t>
@@ -1952,9 +1955,6 @@
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" t="s">
-        <v>55</v>
-      </c>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
       <c r="X6" s="2"/>
@@ -1967,13 +1967,13 @@
         <v>29</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
@@ -1982,20 +1982,20 @@
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
       <c r="K7" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
       <c r="Q7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="R7" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="R7" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2" t="s">
@@ -2016,19 +2016,19 @@
         <v>20</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
@@ -2037,18 +2037,18 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="O8" s="3"/>
       <c r="P8" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q8" s="3"/>
       <c r="R8" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
@@ -2067,19 +2067,19 @@
         <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
@@ -2088,18 +2088,18 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N9" s="3" t="s">
         <v>71</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="O9" s="3"/>
       <c r="P9" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="Q9" s="3"/>
       <c r="R9" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
@@ -2118,19 +2118,19 @@
         <v>22</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
@@ -2139,18 +2139,18 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="N10" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="O10" s="3"/>
       <c r="P10" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q10" s="3"/>
       <c r="R10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
@@ -2169,19 +2169,19 @@
         <v>17</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2190,18 +2190,18 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="N11" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="O11" s="3"/>
       <c r="P11" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="Q11" s="3"/>
       <c r="R11" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
@@ -2220,19 +2220,19 @@
         <v>18</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
@@ -2241,18 +2241,18 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="O12" s="3"/>
       <c r="P12" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q12" s="3"/>
       <c r="R12" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
@@ -2271,19 +2271,19 @@
         <v>19</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>21</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
@@ -2292,16 +2292,16 @@
       <c r="K13" s="3"/>
       <c r="L13" s="3"/>
       <c r="M13" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="N13" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="O13" s="3"/>
       <c r="P13" s="3"/>
       <c r="Q13" s="3"/>
       <c r="R13" s="3" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
@@ -2320,54 +2320,54 @@
         <v>14</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="O14" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="R14" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="S14" s="3" t="s">
         <v>106</v>
-      </c>
-      <c r="R14" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="S14" s="3" t="s">
-        <v>107</v>
       </c>
       <c r="T14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="U14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
@@ -2381,48 +2381,48 @@
         <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="O15" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="O15" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="R15" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
@@ -2436,48 +2436,48 @@
         <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="H16" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="O16" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="O16" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
       <c r="U16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
@@ -2491,52 +2491,52 @@
         <v>23</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="H17" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>130</v>
       </c>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
       <c r="K17" s="2"/>
       <c r="L17" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="O17" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="O17" s="2" t="s">
-        <v>133</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="R17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="S17" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="R17" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="S17" s="3" t="s">
-        <v>135</v>
       </c>
       <c r="T17" s="2" t="s">
         <v>29</v>
       </c>
       <c r="U17" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
@@ -2550,16 +2550,16 @@
         <v>27</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D18" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E18" s="2" t="s">
         <v>137</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>138</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -2569,7 +2569,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -2605,7 +2605,7 @@
         <v>143</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -2631,7 +2631,7 @@
       </c>
       <c r="T19" s="2"/>
       <c r="U19" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
@@ -2645,13 +2645,13 @@
         <v>30</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
@@ -2660,23 +2660,23 @@
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
       <c r="K20" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="4" t="s">
-        <v>152</v>
+      <c r="U20" s="2" t="s">
+        <v>153</v>
       </c>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
@@ -2690,13 +2690,13 @@
         <v>31</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
@@ -2705,19 +2705,19 @@
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
       <c r="K21" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L21" s="2"/>
       <c r="M21" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="N21" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" s="2"/>
       <c r="Q21" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -2735,13 +2735,13 @@
         <v>33</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
@@ -2749,24 +2749,24 @@
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" s="2"/>
       <c r="Q22" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
       <c r="U22" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
@@ -2780,13 +2780,13 @@
         <v>36</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2794,26 +2794,26 @@
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K23" s="2"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N23" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" s="2"/>
       <c r="Q23" s="2" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
@@ -2827,13 +2827,13 @@
         <v>37</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -2842,18 +2842,18 @@
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
       <c r="K24" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" s="2"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
@@ -2870,24 +2870,24 @@
         <v>10</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J25" s="2"/>
       <c r="K25" s="2"/>
@@ -2897,13 +2897,13 @@
       <c r="O25" s="2"/>
       <c r="P25" s="2"/>
       <c r="Q25" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
       <c r="T25" s="2"/>
-      <c r="U25" s="2" t="s">
-        <v>181</v>
+      <c r="U25" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
@@ -2917,24 +2917,24 @@
         <v>11</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="J26" s="2"/>
       <c r="K26" s="2"/>
@@ -2944,13 +2944,13 @@
       <c r="O26" s="2"/>
       <c r="P26" s="2"/>
       <c r="Q26" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
       <c r="T26" s="2"/>
-      <c r="U26" s="2" t="s">
-        <v>188</v>
+      <c r="U26" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
@@ -2964,23 +2964,23 @@
         <v>12</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -2991,13 +2991,13 @@
       <c r="O27" s="2"/>
       <c r="P27" s="2"/>
       <c r="Q27" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
       <c r="T27" s="2"/>
-      <c r="U27" s="2" t="s">
-        <v>195</v>
+      <c r="U27" s="4" t="s">
+        <v>196</v>
       </c>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
@@ -3011,23 +3011,23 @@
         <v>8</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -3040,7 +3040,7 @@
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="T28" s="2"/>
       <c r="U28" s="2"/>
@@ -3056,23 +3056,23 @@
         <v>9</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -3085,7 +3085,7 @@
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="T29" s="2"/>
       <c r="U29" s="2"/>
@@ -3101,22 +3101,22 @@
         <v>6</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
@@ -3130,7 +3130,7 @@
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T30" s="2"/>
       <c r="U30" s="2" t="s">
@@ -3148,22 +3148,22 @@
         <v>7</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
@@ -3177,7 +3177,7 @@
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T31" s="2"/>
       <c r="U31" s="2" t="s">
@@ -3195,22 +3195,22 @@
         <v>4</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
@@ -3224,7 +3224,7 @@
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T32" s="2"/>
       <c r="U32" s="2" t="s">
@@ -3242,22 +3242,22 @@
         <v>5</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>23</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
@@ -3271,7 +3271,7 @@
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="T33" s="2"/>
       <c r="U33" s="2" t="s">
@@ -31368,47 +31368,47 @@
         <v>2</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B2" s="7">
         <v>1</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B3" s="7">
         <v>2</v>
@@ -31417,366 +31417,366 @@
         <v>21</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B4" s="7">
         <v>3</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B5" s="7">
         <v>4</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B6" s="7">
         <v>5</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B7" s="7">
         <v>6</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B8" s="7">
         <v>7</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B9" s="7">
         <v>8</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B10" s="7">
         <v>9</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B11" s="7">
         <v>10</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B12" s="7">
         <v>11</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B13" s="7">
         <v>12</v>
@@ -31785,36 +31785,36 @@
         <v>21</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B14" s="7">
         <v>13</v>
@@ -31823,36 +31823,36 @@
         <v>21</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" s="7">
         <v>14</v>
@@ -31861,36 +31861,36 @@
         <v>21</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B16" s="7">
         <v>15</v>
@@ -31899,36 +31899,36 @@
         <v>21</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="B17" s="7">
         <v>16</v>
@@ -31937,36 +31937,36 @@
         <v>21</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B18" s="7">
         <v>17</v>
@@ -31975,36 +31975,36 @@
         <v>21</v>
       </c>
       <c r="D18" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="F18" s="7" t="s">
+      <c r="H18" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="J18" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="G18" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H18" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="I18" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>122</v>
-      </c>
       <c r="K18" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="7" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B19" s="7">
         <v>18</v>
@@ -32013,71 +32013,71 @@
         <v>21</v>
       </c>
       <c r="D19" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E19" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="F19" s="7" t="s">
+      <c r="H19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="I19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="G19" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="H19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>103</v>
-      </c>
       <c r="K19" s="7" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B20" s="7">
         <v>19</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B21" s="7">
         <v>20</v>
@@ -32086,36 +32086,36 @@
         <v>21</v>
       </c>
       <c r="D21" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G21" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E21" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F21" s="7" t="s">
+      <c r="H21" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="J21" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="G21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H21" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="I21" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>113</v>
-      </c>
       <c r="K21" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B22" s="7">
         <v>21</v>
@@ -32124,36 +32124,36 @@
         <v>21</v>
       </c>
       <c r="D22" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="E22" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="F22" s="7" t="s">
+      <c r="H22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="I22" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="G22" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="H22" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="I22" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="J22" s="7" t="s">
-        <v>131</v>
-      </c>
       <c r="K22" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B23" s="7">
         <v>22</v>
@@ -32162,10 +32162,10 @@
         <v>21</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>39</v>
@@ -32180,18 +32180,18 @@
         <v>40</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B24" s="7">
         <v>23</v>
@@ -32200,10 +32200,10 @@
         <v>21</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>26</v>
@@ -32212,24 +32212,24 @@
         <v>24</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B25" s="7">
         <v>24</v>
@@ -32238,7 +32238,7 @@
         <v>21</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E25" s="7" t="s">
         <v>50</v>
@@ -32256,18 +32256,18 @@
         <v>52</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B26" s="7">
         <v>25</v>
@@ -32276,66 +32276,66 @@
         <v>21</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>140</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>55</v>
+        <v>138</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B27" s="7">
         <v>26</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" ht="15.75" customHeight="1">
@@ -32358,27 +32358,27 @@
         <v>144</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B29" s="3">
         <v>28</v>
@@ -32387,36 +32387,36 @@
         <v>21</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E29" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="G29" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="F29" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>86</v>
-      </c>
       <c r="H29" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I29" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J29" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K29" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B30" s="3">
         <v>29</v>
@@ -32425,36 +32425,36 @@
         <v>21</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E30" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G30" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F30" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>92</v>
-      </c>
       <c r="H30" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K30" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L30" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B31" s="3">
         <v>30</v>
@@ -32463,36 +32463,36 @@
         <v>21</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F31" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G31" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>97</v>
-      </c>
       <c r="H31" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K31" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L31" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B32" s="3">
         <v>31</v>
@@ -32501,36 +32501,36 @@
         <v>21</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="E32" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G32" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>68</v>
-      </c>
       <c r="H32" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I32" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K32" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L32" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="3" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B33" s="3">
         <v>32</v>
@@ -32539,36 +32539,36 @@
         <v>21</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E33" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="G33" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="F33" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>74</v>
-      </c>
       <c r="H33" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I33" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K33" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L33" s="3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="3" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B34" s="3">
         <v>33</v>
@@ -32577,36 +32577,36 @@
         <v>21</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E34" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="G34" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="F34" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>80</v>
-      </c>
       <c r="H34" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I34" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K34" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L34" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
       <c r="A35" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B35" s="7">
         <v>34</v>
@@ -32615,36 +32615,36 @@
         <v>21</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="36" ht="15.75" customHeight="1">
       <c r="A36" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B36" s="7">
         <v>35</v>
@@ -32653,36 +32653,36 @@
         <v>21</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="37" ht="15.75" customHeight="1">
       <c r="A37" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B37" s="7">
         <v>36</v>
@@ -32691,71 +32691,71 @@
         <v>21</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L37" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="38" ht="15.75" customHeight="1">
       <c r="A38" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B38" s="7">
         <v>37</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B39" s="7">
         <v>38</v>
@@ -32764,36 +32764,36 @@
         <v>21</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E39" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F39" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="F39" s="7" t="s">
-        <v>156</v>
-      </c>
       <c r="G39" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B40" s="7">
         <v>39</v>
@@ -32802,31 +32802,31 @@
         <v>21</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E40" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>168</v>
       </c>
-      <c r="F40" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="G40" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L40" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="41" ht="15.75" customHeight="1">
@@ -32840,31 +32840,31 @@
         <v>21</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E41" s="7" t="s">
         <v>46</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H41" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I41" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J41" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L41" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="42" ht="15.75" customHeight="1">
@@ -32878,36 +32878,36 @@
         <v>21</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="E42" s="7" t="s">
         <v>33</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L42" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B43" s="7">
         <v>42</v>
@@ -32916,456 +32916,456 @@
         <v>21</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="L43" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B44" s="7">
         <v>43</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B45" s="7">
         <v>44</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B46" s="7">
         <v>45</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B47" s="7">
         <v>46</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B48" s="7">
         <v>47</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B49" s="7">
         <v>48</v>
       </c>
       <c r="C49" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H49" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I49" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J49" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K49" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B50" s="7">
         <v>49</v>
       </c>
       <c r="C50" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H50" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I50" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="J50" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="K50" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="L51" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="L52" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="L53" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="L54" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="L55" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="L56" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="L57" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="L58" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="L59" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="L60" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="L61" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="L62" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="L63" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="L64" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="L65" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="L66" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="L67" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="L68" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="L69" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="L70" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="L71" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="L72" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="L73" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="L74" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="L75" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="L76" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="L77" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="L78" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="L79" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="L80" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="L81" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="L82" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="L83" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="L84" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="L85" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="L86" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="87" ht="15.75" customHeight="1"/>
